--- a/data/trans_camb/P16B04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B04-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16B04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B04-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -687,22 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -767,22 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,81</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 53,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,71; 35,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 27,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,11; 19,48</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,93%</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 115,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,73; 56,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 38,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,17; 24,6</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-11,02</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,51</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,65</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,1; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,59; 20,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 26,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,28; 3,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,25</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,72%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,1; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,61; 26,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 35,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,72; 3,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,28</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,27</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,75</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,27; 3,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 43,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,44; 10,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,15; -3,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,45</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,55%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,39%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,74%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,24%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,52; 0,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 75,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,97; 12,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 34,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,1; -4,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,68</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,21</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,14</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,48</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,32</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,67</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,77; 14,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,96; 17,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,88; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,27; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,15; 3,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,52; 4,09</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,44%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,14%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,48%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,63%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,99%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,63; 17,97</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,48; 21,56</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,88; 0,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,27; 0,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,82; 3,68</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,16; 4,25</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,32</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,94</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,13; -1,52</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,87; 6,58</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,21; 8,15</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,84; 8,29</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,93; 0,94</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,71; 4,75</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,8%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,36%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,18%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,12%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,1; -1,86</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,98; 7,5</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,34; 9,04</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,99; 9,19</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,37; 0,73</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,89; 5,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B04-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 41,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,98; 31,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,51; 20,13</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,3%</t>
         </is>
       </c>
     </row>
@@ -725,29 +725,29 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 72,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,99; 47,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 34,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,52; 25,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-11,02</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,6</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>-4,51</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>2,65</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-36,1; 0,0</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,61</t>
+          <t>-8,59; 20,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 35,49</t>
+          <t>0,0; 26,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,84</t>
+          <t>-14,28; 3,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 19,48</t>
+          <t>0,0; 13,25</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-11,02%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>-4,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>2,72%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-36,1; 0,0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 115,88</t>
+          <t>-8,61; 26,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 56,44</t>
+          <t>0,0; 35,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,58</t>
+          <t>-14,72; 3,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 24,6</t>
+          <t>0,0; 15,28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-11,02</t>
+          <t>-26,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,51</t>
+          <t>-20,27</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>6,75</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-36,1; 0,0</t>
+          <t>-53,27; 3,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 43,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 20,83</t>
+          <t>-34,44; 10,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,34</t>
+          <t>0,0; 25,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 3,71</t>
+          <t>-40,15; -3,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,25</t>
+          <t>0,0; 20,45</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,02%</t>
+          <t>-29,55%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>-3,39%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,63%</t>
+          <t>-21,74%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>7,24%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,1; 0,0</t>
+          <t>-57,52; 0,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 75,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 26,49</t>
+          <t>-35,97; 12,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,75</t>
+          <t>0,0; 34,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 3,87</t>
+          <t>-42,1; -4,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,28</t>
+          <t>0,0; 25,68</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-26,48</t>
+          <t>-7,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,39</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-7,14</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>-10,48</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-20,27</t>
+          <t>-6,32</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>-6,67</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-53,27; 3,24</t>
+          <t>-29,77; 14,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,03</t>
+          <t>-19,96; 17,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-34,44; 10,81</t>
+          <t>-22,88; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,32</t>
+          <t>-34,27; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-40,15; -3,79</t>
+          <t>-17,15; 3,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,45</t>
+          <t>-19,52; 4,09</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-29,55%</t>
+          <t>-8,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>-2,44%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,39%</t>
+          <t>-7,14%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>-10,48%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-21,74%</t>
+          <t>-6,63%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>-6,99%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-57,52; 0,71</t>
+          <t>-32,63; 17,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 75,54</t>
+          <t>-20,48; 21,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-35,97; 12,09</t>
+          <t>-22,88; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,35</t>
+          <t>-34,27; 0,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,1; -4,76</t>
+          <t>-17,82; 3,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,68</t>
+          <t>-20,16; 4,25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-7,21</t>
+          <t>-10,32</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-7,14</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-10,48</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-6,32</t>
+          <t>-4,94</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-6,67</t>
+          <t>-0,12</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-29,77; 14,45</t>
+          <t>-20,13; -1,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 17,92</t>
+          <t>-7,87; 6,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 0,0</t>
+          <t>-6,21; 8,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-34,27; 0,0</t>
+          <t>-7,84; 8,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 3,43</t>
+          <t>-10,93; 0,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 4,09</t>
+          <t>-5,71; 4,75</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-8,0%</t>
+          <t>-10,8%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>-0,36%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-7,14%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-10,48%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-6,63%</t>
+          <t>-5,18%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-6,99%</t>
+          <t>-0,12%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-32,63; 17,97</t>
+          <t>-21,1; -1,86</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 21,56</t>
+          <t>-7,98; 7,5</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 0,0</t>
+          <t>-6,34; 9,04</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,27; 0,0</t>
+          <t>-7,99; 9,19</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 3,68</t>
+          <t>-11,37; 0,73</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 4,25</t>
+          <t>-5,89; 5,04</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-10,32</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,34</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-4,94</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-20,13; -1,52</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-7,87; 6,58</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-6,21; 8,15</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-7,84; 8,29</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-10,93; 0,94</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-5,71; 4,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-10,8%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-0,36%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>0,09%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>0,07%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-5,18%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-0,12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-21,1; -1,86</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-7,98; 7,5</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-6,34; 9,04</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-7,99; 9,19</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-11,37; 0,73</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-5,89; 5,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16B04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B04-Habitat-trans_camb.xlsx
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,87</t>
+          <t>0,0; 39,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 31,54</t>
+          <t>-11,91; 29,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,47</t>
+          <t>0,0; 28,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 20,13</t>
+          <t>-6,47; 20,12</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,03</t>
+          <t>0,0; 65,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 47,44</t>
+          <t>-11,94; 44,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,17</t>
+          <t>0,0; 40,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 25,34</t>
+          <t>-6,47; 25,6</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-36,1; 0,0</t>
+          <t>-37,01; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 20,83</t>
+          <t>-8,68; 20,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,34</t>
+          <t>0,0; 29,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 3,71</t>
+          <t>-15,57; 3,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,25</t>
+          <t>0,0; 16,18</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,1; 0,0</t>
+          <t>-37,01; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 26,49</t>
+          <t>-8,68; 27,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,75</t>
+          <t>0,0; 41,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 3,87</t>
+          <t>-15,77; 4,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,28</t>
+          <t>0,0; 19,31</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-53,27; 3,24</t>
+          <t>-51,28; 8,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,03</t>
+          <t>0,0; 42,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-34,44; 10,81</t>
+          <t>-28,83; 10,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,32</t>
+          <t>0,0; 29,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-40,15; -3,79</t>
+          <t>-39,64; -3,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,45</t>
+          <t>0,0; 23,05</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,52; 0,71</t>
+          <t>-56,51; 6,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 75,54</t>
+          <t>0,0; 73,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,97; 12,09</t>
+          <t>-29,21; 11,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,35</t>
+          <t>0,0; 42,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,1; -4,76</t>
+          <t>-41,64; -4,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,68</t>
+          <t>0,0; 29,9</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-29,77; 14,45</t>
+          <t>-32,62; 14,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 17,92</t>
+          <t>-19,28; 17,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 0,0</t>
+          <t>-21,9; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-34,27; 0,0</t>
+          <t>-31,87; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 3,43</t>
+          <t>-17,85; 4,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 4,09</t>
+          <t>-18,9; 3,56</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,63; 17,97</t>
+          <t>-34,89; 17,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 21,56</t>
+          <t>-20,28; 21,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 0,0</t>
+          <t>-21,9; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,27; 0,0</t>
+          <t>-31,87; 0,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 3,68</t>
+          <t>-19,03; 3,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 4,25</t>
+          <t>-19,24; 3,72</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-20,13; -1,52</t>
+          <t>-19,8; -1,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 6,58</t>
+          <t>-8,06; 6,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 8,15</t>
+          <t>-6,42; 9,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 8,29</t>
+          <t>-8,8; 6,66</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 0,94</t>
+          <t>-10,66; 0,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 4,75</t>
+          <t>-5,92; 5,31</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-21,1; -1,86</t>
+          <t>-20,51; -2,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 7,5</t>
+          <t>-8,22; 6,91</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 9,04</t>
+          <t>-6,57; 10,19</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 9,19</t>
+          <t>-9,05; 7,4</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 0,73</t>
+          <t>-10,89; 0,81</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 5,04</t>
+          <t>-6,04; 5,83</t>
         </is>
       </c>
     </row>
